--- a/MOSFERATWO JLCPCB CPL.xlsx
+++ b/MOSFERATWO JLCPCB CPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\13 DEC 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D337AC-96CF-41A5-8ABA-9BD312ECCBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF3C208-5AF2-46C6-9028-7952C222E570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="380" windowWidth="19180" windowHeight="10060" xr2:uid="{9554DC4B-D57C-4CE6-B29F-4842ACEBB972}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9554DC4B-D57C-4CE6-B29F-4842ACEBB972}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="208">
   <si>
     <t>C1</t>
   </si>
@@ -317,12 +317,6 @@
     <t>0.00</t>
   </si>
   <si>
-    <t>-0.650000</t>
-  </si>
-  <si>
-    <t>43.830000</t>
-  </si>
-  <si>
     <t>270.00</t>
   </si>
   <si>
@@ -431,9 +425,6 @@
     <t>-4.650000</t>
   </si>
   <si>
-    <t>43.660000</t>
-  </si>
-  <si>
     <t>-18.150000</t>
   </si>
   <si>
@@ -542,12 +533,6 @@
     <t>27.490000</t>
   </si>
   <si>
-    <t>-2.450000</t>
-  </si>
-  <si>
-    <t>43.850000</t>
-  </si>
-  <si>
     <t>-18.910000</t>
   </si>
   <si>
@@ -587,21 +572,12 @@
     <t>37.870000</t>
   </si>
   <si>
-    <t>1.080000</t>
-  </si>
-  <si>
-    <t>43.860000</t>
-  </si>
-  <si>
     <t>-21.780000</t>
   </si>
   <si>
     <t>-38.660000</t>
   </si>
   <si>
-    <t>2.820000</t>
-  </si>
-  <si>
     <t>-19.700000</t>
   </si>
   <si>
@@ -654,6 +630,36 @@
   </si>
   <si>
     <t>12.192000</t>
+  </si>
+  <si>
+    <t>0.470000</t>
+  </si>
+  <si>
+    <t>42.120000</t>
+  </si>
+  <si>
+    <t>-4.760000</t>
+  </si>
+  <si>
+    <t>41.890000</t>
+  </si>
+  <si>
+    <t>-1.980000</t>
+  </si>
+  <si>
+    <t>42.110000</t>
+  </si>
+  <si>
+    <t>2.790000</t>
+  </si>
+  <si>
+    <t>41.980000</t>
+  </si>
+  <si>
+    <t>5.160000</t>
+  </si>
+  <si>
+    <t>42.190000</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1051,7 @@
   <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2:E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1265,16 +1271,16 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
         <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -1282,10 +1288,10 @@
         <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -1299,10 +1305,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
         <v>46</v>
@@ -1316,10 +1322,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
         <v>46</v>
@@ -1333,16 +1339,16 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1350,10 +1356,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
         <v>46</v>
@@ -1367,10 +1373,10 @@
         <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
         <v>46</v>
@@ -1384,10 +1390,10 @@
         <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
         <v>46</v>
@@ -1401,10 +1407,10 @@
         <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
         <v>46</v>
@@ -1418,10 +1424,10 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
         <v>46</v>
@@ -1435,10 +1441,10 @@
         <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
         <v>46</v>
@@ -1452,10 +1458,10 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
         <v>46</v>
@@ -1469,10 +1475,10 @@
         <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
         <v>46</v>
@@ -1486,10 +1492,10 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
         <v>46</v>
@@ -1503,10 +1509,10 @@
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
         <v>46</v>
@@ -1520,16 +1526,16 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1537,10 +1543,10 @@
         <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
@@ -1554,10 +1560,10 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
         <v>46</v>
@@ -1571,16 +1577,16 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="D31" t="s">
         <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1588,16 +1594,16 @@
         <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
         <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1605,10 +1611,10 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
         <v>46</v>
@@ -1622,10 +1628,10 @@
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
         <v>46</v>
@@ -1639,10 +1645,10 @@
         <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D35" t="s">
         <v>46</v>
@@ -1653,13 +1659,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
         <v>46</v>
@@ -1670,13 +1676,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C37" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D37" t="s">
         <v>46</v>
@@ -1690,16 +1696,16 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -1707,10 +1713,10 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D39" t="s">
         <v>46</v>
@@ -1724,16 +1730,16 @@
         <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -1741,10 +1747,10 @@
         <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D41" t="s">
         <v>46</v>
@@ -1758,10 +1764,10 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C42" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
         <v>46</v>
@@ -1775,16 +1781,16 @@
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D43" t="s">
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -1792,10 +1798,10 @@
         <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
@@ -1809,10 +1815,10 @@
         <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D45" t="s">
         <v>46</v>
@@ -1826,10 +1832,10 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C46" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D46" t="s">
         <v>46</v>
@@ -1843,10 +1849,10 @@
         <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D47" t="s">
         <v>46</v>
@@ -1860,10 +1866,10 @@
         <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C48" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D48" t="s">
         <v>46</v>
@@ -1877,10 +1883,10 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="C49" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D49" t="s">
         <v>46</v>
@@ -1894,16 +1900,16 @@
         <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D50" t="s">
         <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -1911,16 +1917,16 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D51" t="s">
         <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -1928,16 +1934,16 @@
         <v>36</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D52" t="s">
         <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -1945,10 +1951,10 @@
         <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C53" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D53" t="s">
         <v>46</v>
@@ -1962,10 +1968,10 @@
         <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C54" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D54" t="s">
         <v>46</v>
@@ -1979,10 +1985,10 @@
         <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D55" t="s">
         <v>46</v>
@@ -1996,10 +2002,10 @@
         <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C56" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D56" t="s">
         <v>46</v>
@@ -2013,16 +2019,16 @@
         <v>41</v>
       </c>
       <c r="B57" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="C57" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D57" t="s">
         <v>46</v>
       </c>
       <c r="E57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -2030,16 +2036,16 @@
         <v>42</v>
       </c>
       <c r="B58" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D58" t="s">
         <v>46</v>
       </c>
       <c r="E58" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -2047,10 +2053,10 @@
         <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="D59" t="s">
         <v>46</v>
@@ -2064,10 +2070,10 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D60" t="s">
         <v>46</v>
@@ -2081,10 +2087,10 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D61" t="s">
         <v>46</v>
@@ -2098,10 +2104,10 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C62" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D62" t="s">
         <v>46</v>
@@ -2115,10 +2121,10 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C63" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D63" t="s">
         <v>46</v>
@@ -2132,10 +2138,10 @@
         <v>44</v>
       </c>
       <c r="B64" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D64" t="s">
         <v>46</v>
@@ -2149,10 +2155,10 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C65" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D65" t="s">
         <v>46</v>
@@ -2163,19 +2169,19 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C66" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D66" t="s">
         <v>46</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -2183,10 +2189,10 @@
         <v>45</v>
       </c>
       <c r="B67" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C67" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D67" t="s">
         <v>46</v>
@@ -2200,16 +2206,16 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C68" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D68" t="s">
         <v>46</v>
       </c>
       <c r="E68" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
